--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>632613.8483325507</v>
+        <v>557956.0412616149</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>406463.2981009824</v>
+        <v>406463.2981009822</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11783336.69528064</v>
+        <v>11783336.69528065</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7932415.894408817</v>
+        <v>7932415.894408816</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.26531605719669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -740,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>74.12172122246037</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>51.86683734433478</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,10 +940,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>241.0142888776591</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.0792623895659</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>19.23097888973112</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,73 +1132,73 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1217,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>131.1725694225823</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="10">
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>243.2386572690346</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.0252816852793</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>155.8903435161421</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="W11" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1454,13 +1454,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>10.52429365287424</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>8.058151055446327</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1514,10 +1514,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.93225064571201</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>160.1989433021659</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1654,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>97.14353343492284</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>189.8931039215388</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.4215416234949</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>184.9564424377016</v>
+        <v>296.6945426081676</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1694,16 +1694,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8944188046378</v>
+        <v>48.19648491740096</v>
       </c>
       <c r="H15" t="n">
-        <v>107.8980995629109</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.27434132826669</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>163.3413660663107</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.35454715303</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9118361363319</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>173.8359199062157</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>103.8525010742527</v>
       </c>
       <c r="I16" t="n">
-        <v>144.1278231270809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.63455058802037</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>160.364178619105</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>58.40673248524965</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>163.8950372953869</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,10 +1861,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643572</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>139.5676294884024</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481187</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231931</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250823</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.7112368822934</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>234.4970761400725</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>149.309882277398</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>256.5118382785773</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643572</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>45.85148416949169</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250824</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2219,7 +2219,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494218</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2253,10 +2253,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>80.30846669433839</v>
       </c>
       <c r="H22" t="n">
-        <v>28.51033041214252</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>144.88613670516</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481187</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089716</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
         <v>251.2241675082893</v>
@@ -2380,13 +2380,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>57.66595549467266</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250486</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.7112368822934</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>78.08506320366507</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>129.0246247964024</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>413.784170020795</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748116</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -2611,10 +2611,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>105.015905348654</v>
+        <v>97.1341692977079</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H27" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>59.94338340120333</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2757,25 +2757,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>156.1271626621477</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>22.58139698232408</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -2848,19 +2848,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>199.8692462101354</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2994,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>26.1830218330443</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3037,10 +3037,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>53.37131959271611</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
@@ -3049,7 +3049,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>16.96135624930658</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -3085,13 +3085,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>4.553842565068717</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.68278626299276</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>212.7389733439011</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>283.2346180633609</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>94.63926978364033</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>57.68157701938526</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>199.3355115125534</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>123.5492650282467</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,10 +3805,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>108.8189052543898</v>
+        <v>55.73071083106505</v>
       </c>
     </row>
     <row r="42">
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>84.84244993117463</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1271626621471</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>188.7860545844387</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>362.429248722641</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
-        <v>196.889762398448</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U45" t="n">
         <v>225.8879277888686</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>23.32897990642487</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.57944215788615</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>22.57944215788615</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D2" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>509.4769954460863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>266.0282188019862</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.57944215788615</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>480.6742980174409</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>331.7398883561897</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>331.7398883561897</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>185.2053303830747</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>185.2053303830747</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4418,16 +4418,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>862.8876260635219</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8876260635219</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W3" t="n">
-        <v>862.8876260635219</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X3" t="n">
-        <v>862.8876260635219</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y3" t="n">
-        <v>655.1273272985679</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4521,10 +4521,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>477.1596022224361</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>627.9339654430905</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>453.4809361619635</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
         <v>19.28114311021272</v>
@@ -4649,10 +4649,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
         <v>304.2053859195205</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>670.0450503124422</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4761,7 +4761,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4786,16 +4786,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>588.1108339952409</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>588.1108339952409</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>439.1764243339896</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>279.9389693285341</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
         <v>20.03527576299844</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4916,19 +4916,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>831.5596106393409</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>588.1108339952409</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>588.1108339952409</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>588.1108339952409</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4989,16 +4989,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
         <v>19.28114311021272</v>
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.09252109618844</v>
+        <v>546.7341079359765</v>
       </c>
       <c r="C11" t="n">
-        <v>22.09252109618844</v>
+        <v>267.7881344992537</v>
       </c>
       <c r="D11" t="n">
         <v>22.09252109618844</v>
@@ -5047,13 +5047,13 @@
         <v>142.8373253438683</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412869</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M11" t="n">
-        <v>586.3582880173957</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N11" t="n">
-        <v>817.0829279823544</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
         <v>989.7620250901066</v>
@@ -5065,28 +5065,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R11" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S11" t="n">
-        <v>962.1762753293418</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>737.4494614202825</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U11" t="n">
-        <v>579.9844679696339</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V11" t="n">
-        <v>301.0384945329112</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="W11" t="n">
-        <v>22.09252109618844</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="X11" t="n">
-        <v>22.09252109618844</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Y11" t="n">
-        <v>22.09252109618844</v>
+        <v>825.6800813726992</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>171.0269307574397</v>
+        <v>179.2576787186714</v>
       </c>
       <c r="C12" t="n">
-        <v>171.0269307574397</v>
+        <v>179.2576787186714</v>
       </c>
       <c r="D12" t="n">
-        <v>22.09252109618844</v>
+        <v>179.2576787186714</v>
       </c>
       <c r="E12" t="n">
-        <v>22.09252109618844</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="F12" t="n">
         <v>22.09252109618844</v>
@@ -5120,22 +5120,22 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J12" t="n">
-        <v>28.39914141318535</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K12" t="n">
-        <v>165.799003153448</v>
+        <v>159.4923828364511</v>
       </c>
       <c r="L12" t="n">
-        <v>411.954469746149</v>
+        <v>405.6478494291521</v>
       </c>
       <c r="M12" t="n">
-        <v>411.954469746149</v>
+        <v>564.7342926608062</v>
       </c>
       <c r="N12" t="n">
-        <v>641.2451212288496</v>
+        <v>838.1292412261381</v>
       </c>
       <c r="O12" t="n">
-        <v>907.7419348121334</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="P12" t="n">
         <v>1104.626054809422</v>
@@ -5144,28 +5144,28 @@
         <v>1104.626054809422</v>
       </c>
       <c r="R12" t="n">
-        <v>1096.486508288769</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S12" t="n">
-        <v>1096.486508288769</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T12" t="n">
-        <v>1096.486508288769</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>868.2678959229168</v>
+        <v>876.4074424435696</v>
       </c>
       <c r="V12" t="n">
-        <v>633.1157876911741</v>
+        <v>641.2553342118269</v>
       </c>
       <c r="W12" t="n">
-        <v>378.8784309629725</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="X12" t="n">
-        <v>171.0269307574397</v>
+        <v>387.0179774836253</v>
       </c>
       <c r="Y12" t="n">
-        <v>171.0269307574397</v>
+        <v>179.2576787186714</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C13" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D13" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E13" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F13" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G13" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H13" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I13" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J13" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K13" t="n">
         <v>22.09252109618844</v>
@@ -5223,28 +5223,28 @@
         <v>198.9927170031359</v>
       </c>
       <c r="R13" t="n">
-        <v>37.1756025565036</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S13" t="n">
-        <v>37.1756025565036</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="U13" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V13" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W13" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X13" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y13" t="n">
-        <v>37.1756025565036</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1253.665649021499</v>
+        <v>867.8773964232548</v>
       </c>
       <c r="C14" t="n">
-        <v>1253.665649021499</v>
+        <v>867.8773964232548</v>
       </c>
       <c r="D14" t="n">
-        <v>1253.665649021499</v>
+        <v>867.8773964232548</v>
       </c>
       <c r="E14" t="n">
-        <v>867.8773964232552</v>
+        <v>867.8773964232548</v>
       </c>
       <c r="F14" t="n">
-        <v>456.8914916336476</v>
+        <v>456.8914916336472</v>
       </c>
       <c r="G14" t="n">
-        <v>38.24161755721975</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="H14" t="n">
-        <v>38.24161755721975</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="I14" t="n">
-        <v>38.24161755721975</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="J14" t="n">
-        <v>96.93923871827369</v>
+        <v>96.93923871827189</v>
       </c>
       <c r="K14" t="n">
-        <v>305.6565612977748</v>
+        <v>305.6565612977709</v>
       </c>
       <c r="L14" t="n">
-        <v>616.8654835480132</v>
+        <v>616.8654835480064</v>
       </c>
       <c r="M14" t="n">
-        <v>979.7519185640817</v>
+        <v>979.7519185640722</v>
       </c>
       <c r="N14" t="n">
-        <v>1333.878237938985</v>
+        <v>1333.878237938972</v>
       </c>
       <c r="O14" t="n">
-        <v>1623.082041653898</v>
+        <v>1623.082041653882</v>
       </c>
       <c r="P14" t="n">
-        <v>1832.236414250568</v>
+        <v>1832.23641425055</v>
       </c>
       <c r="Q14" t="n">
-        <v>1912.080877860988</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="R14" t="n">
-        <v>1813.956096613591</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="S14" t="n">
-        <v>1813.956096613591</v>
+        <v>1720.269661778606</v>
       </c>
       <c r="T14" t="n">
-        <v>1813.956096613591</v>
+        <v>1498.631740946793</v>
       </c>
       <c r="U14" t="n">
-        <v>1813.956096613591</v>
+        <v>1498.631740946793</v>
       </c>
       <c r="V14" t="n">
-        <v>1813.956096613591</v>
+        <v>1167.568853603222</v>
       </c>
       <c r="W14" t="n">
-        <v>1627.131407282579</v>
+        <v>867.8773964232548</v>
       </c>
       <c r="X14" t="n">
-        <v>1253.665649021499</v>
+        <v>867.8773964232548</v>
       </c>
       <c r="Y14" t="n">
-        <v>1253.665649021499</v>
+        <v>867.8773964232548</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>914.6662395463997</v>
+        <v>410.3123745979825</v>
       </c>
       <c r="C15" t="n">
-        <v>740.2132102652727</v>
+        <v>235.8593453168554</v>
       </c>
       <c r="D15" t="n">
-        <v>591.2788006040214</v>
+        <v>86.92493565560417</v>
       </c>
       <c r="E15" t="n">
-        <v>432.0413455985658</v>
+        <v>86.92493565560417</v>
       </c>
       <c r="F15" t="n">
-        <v>285.5067876254508</v>
+        <v>86.92493565560417</v>
       </c>
       <c r="G15" t="n">
-        <v>147.2295969136954</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="H15" t="n">
-        <v>38.24161755721975</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="I15" t="n">
-        <v>38.24161755721975</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="J15" t="n">
-        <v>79.50813891877901</v>
+        <v>79.50813891877777</v>
       </c>
       <c r="K15" t="n">
-        <v>276.6600398753108</v>
+        <v>276.660039875308</v>
       </c>
       <c r="L15" t="n">
-        <v>603.1594970539204</v>
+        <v>603.1594970539157</v>
       </c>
       <c r="M15" t="n">
-        <v>1036.148185237167</v>
+        <v>1036.14818523716</v>
       </c>
       <c r="N15" t="n">
-        <v>1496.303808986029</v>
+        <v>1496.30380898602</v>
       </c>
       <c r="O15" t="n">
-        <v>1644.536891948554</v>
+        <v>1850.840627767035</v>
       </c>
       <c r="P15" t="n">
-        <v>1912.080877860988</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="Q15" t="n">
-        <v>1912.080877860988</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="R15" t="n">
-        <v>1839.07649268092</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="S15" t="n">
-        <v>1674.085213826061</v>
+        <v>1912.080877860968</v>
       </c>
       <c r="T15" t="n">
-        <v>1674.085213826061</v>
+        <v>1711.722749423564</v>
       </c>
       <c r="U15" t="n">
-        <v>1674.085213826061</v>
+        <v>1483.528975548481</v>
       </c>
       <c r="V15" t="n">
-        <v>1674.085213826061</v>
+        <v>1248.376867316739</v>
       </c>
       <c r="W15" t="n">
-        <v>1498.493375536954</v>
+        <v>994.1395105885372</v>
       </c>
       <c r="X15" t="n">
-        <v>1290.641875331421</v>
+        <v>786.2880103830043</v>
       </c>
       <c r="Y15" t="n">
-        <v>1082.881576566468</v>
+        <v>578.5277116180505</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.8252772815439</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="C16" t="n">
-        <v>183.8252772815439</v>
+        <v>291.0562273762314</v>
       </c>
       <c r="D16" t="n">
-        <v>183.8252772815439</v>
+        <v>291.0562273762314</v>
       </c>
       <c r="E16" t="n">
-        <v>183.8252772815439</v>
+        <v>143.1431337938383</v>
       </c>
       <c r="F16" t="n">
-        <v>183.8252772815439</v>
+        <v>143.1431337938383</v>
       </c>
       <c r="G16" t="n">
-        <v>183.8252772815439</v>
+        <v>143.1431337938383</v>
       </c>
       <c r="H16" t="n">
-        <v>183.8252772815439</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="I16" t="n">
-        <v>38.24161755721975</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="J16" t="n">
-        <v>38.24161755721975</v>
+        <v>38.24161755721936</v>
       </c>
       <c r="K16" t="n">
-        <v>59.50088325727526</v>
+        <v>59.500883257274</v>
       </c>
       <c r="L16" t="n">
-        <v>142.2318586473037</v>
+        <v>142.2318586473013</v>
       </c>
       <c r="M16" t="n">
-        <v>239.849195551906</v>
+        <v>239.8491955519024</v>
       </c>
       <c r="N16" t="n">
-        <v>340.5800267922461</v>
+        <v>340.5800267922414</v>
       </c>
       <c r="O16" t="n">
-        <v>417.6049576856901</v>
+        <v>417.6049576856843</v>
       </c>
       <c r="P16" t="n">
-        <v>459.992410304145</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="Q16" t="n">
-        <v>404.8059955687709</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="R16" t="n">
-        <v>242.8219767615941</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="S16" t="n">
-        <v>183.8252772815439</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="T16" t="n">
-        <v>183.8252772815439</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="U16" t="n">
-        <v>183.8252772815439</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="V16" t="n">
-        <v>183.8252772815439</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="W16" t="n">
-        <v>183.8252772815439</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="X16" t="n">
-        <v>183.8252772815439</v>
+        <v>459.9924103041383</v>
       </c>
       <c r="Y16" t="n">
-        <v>183.8252772815439</v>
+        <v>459.9924103041383</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2476.569858826099</v>
+        <v>1409.658350833668</v>
       </c>
       <c r="C17" t="n">
-        <v>2107.607341885688</v>
+        <v>1409.658350833668</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>1409.658350833668</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>1023.870098235424</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910852</v>
+        <v>612.8841934458164</v>
       </c>
       <c r="G17" t="n">
-        <v>534.6036777892721</v>
+        <v>194.9203853440033</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252749</v>
+        <v>194.9203853440033</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733122</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224063</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
-        <v>1362.238747280441</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977172</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
-        <v>2238.843319642687</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791249</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018219</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548712</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548712</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548712</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548712</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V17" t="n">
-        <v>2642.120401548712</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W17" t="n">
-        <v>2642.120401548712</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X17" t="n">
-        <v>2642.120401548712</v>
+        <v>1796.25819089779</v>
       </c>
       <c r="Y17" t="n">
-        <v>2642.120401548712</v>
+        <v>1796.25819089779</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170798</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359528</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747015</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.873081269246</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.338523296131</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424006</v>
@@ -5591,55 +5591,55 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615923</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572639</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315294</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414845</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435189</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.317569050017</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018219</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430044</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.76274807396</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196739</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
-        <v>2061.714576167579</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935836</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207635</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002102</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.713312237148</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036439</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036439</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036439</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
-        <v>110.2451748866324</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477906</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658204</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502493</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594893</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064333</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064333</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406172</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S19" t="n">
-        <v>579.9823256406172</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T19" t="n">
-        <v>579.9823256406172</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="U19" t="n">
-        <v>290.8087152951852</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036439</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036439</v>
+        <v>352.6741383092202</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036439</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036439</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1838.152798564252</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C20" t="n">
-        <v>1469.19028162384</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D20" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E20" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F20" t="n">
-        <v>799.1015098861747</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036439</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533139</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733121</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224065</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M20" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977172</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
-        <v>2238.843319642687</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791249</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018219</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018219</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018219</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2478.514423990282</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.752638628373</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V20" t="n">
-        <v>2224.752638628373</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W20" t="n">
-        <v>2224.752638628373</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X20" t="n">
-        <v>2224.752638628373</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y20" t="n">
-        <v>2224.752638628373</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="21">
@@ -5828,43 +5828,43 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>129.2001442204941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
-        <v>384.4474646615923</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>789.0633827572639</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1313.210296315294</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1866.936832414845</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2307.072755435189</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2643.317569050017</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018219</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430044</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.76274807396</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196739</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
-        <v>2061.714576167579</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
         <v>1826.56246793584</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>546.4805193761935</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C22" t="n">
-        <v>377.5443364482866</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="D22" t="n">
-        <v>377.5443364482866</v>
+        <v>429.8656862282825</v>
       </c>
       <c r="E22" t="n">
-        <v>229.6312428658935</v>
+        <v>281.9525926458894</v>
       </c>
       <c r="F22" t="n">
-        <v>82.7412953679831</v>
+        <v>135.062645147979</v>
       </c>
       <c r="G22" t="n">
-        <v>82.7412953679831</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866324</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.8190324477906</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658203</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502493</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594892</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064332</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064332</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064332</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064332</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064332</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064332</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064332</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064332</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064332</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064332</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>618.3948626148824</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C23" t="n">
-        <v>618.3948626148824</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D23" t="n">
-        <v>618.3948626148824</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E23" t="n">
-        <v>618.3948626148824</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F23" t="n">
-        <v>207.4089578252749</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252749</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252749</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733121</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224066</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977172</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
-        <v>2238.843319642687</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791249</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018219</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548712</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862883</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T23" t="n">
-        <v>2465.942913862883</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U23" t="n">
-        <v>2212.181128500974</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V23" t="n">
-        <v>1881.118241157403</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W23" t="n">
-        <v>1528.349585887289</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="X23" t="n">
-        <v>1154.883827626209</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y23" t="n">
-        <v>764.7444956503975</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170798</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359528</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747015</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269246</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F24" t="n">
-        <v>359.338523296131</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102423971</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H24" t="n">
-        <v>115.985628267339</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615923</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572639</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315294</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414845</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435189</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.317569050017</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018219</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430044</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.76274807396</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196739</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U24" t="n">
-        <v>2061.714576167579</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935836</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207635</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002102</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237148</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036439</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036439</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036439</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036439</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036439</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036439</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036439</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866324</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.8190324477906</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658204</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502493</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594893</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064333</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064333</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064333</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064333</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T25" t="n">
-        <v>597.8010803716834</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U25" t="n">
-        <v>308.6274700262513</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V25" t="n">
-        <v>53.94298182036439</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036439</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036439</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036439</v>
+        <v>290.5651556036576</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>830.1724885289282</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C26" t="n">
-        <v>830.1724885289282</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D26" t="n">
-        <v>471.9067899221776</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E26" t="n">
-        <v>471.9067899221776</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I26" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533127</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733114</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224065</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6259,19 +6259,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U26" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V26" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W26" t="n">
-        <v>1309.714918859356</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X26" t="n">
-        <v>936.2491605982757</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y26" t="n">
-        <v>830.1724885289282</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="27">
@@ -6287,43 +6287,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.1903022614631</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571352</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014718</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035062</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.060406649891</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
         <v>53.94298182036445</v>
@@ -6387,49 +6387,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064349</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064349</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S28" t="n">
-        <v>570.4247794971948</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T28" t="n">
-        <v>343.1165921657965</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U28" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V28" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>409.2948950230955</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>957.4466652737744</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="C29" t="n">
-        <v>588.4841483333628</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D29" t="n">
-        <v>230.2184497266123</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E29" t="n">
-        <v>230.2184497266123</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F29" t="n">
-        <v>230.2184497266123</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>230.2184497266123</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H29" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S29" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T29" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U29" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V29" t="n">
-        <v>1717.512263598976</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W29" t="n">
-        <v>1717.512263598976</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X29" t="n">
-        <v>1344.046505337896</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y29" t="n">
-        <v>1344.046505337896</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6554,31 +6554,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>190.2718927217162</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="C31" t="n">
-        <v>190.2718927217162</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="D31" t="n">
-        <v>190.2718927217162</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="E31" t="n">
-        <v>190.2718927217162</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="F31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6642,31 +6642,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>672.2645682590013</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>444.956380927603</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>444.956380927603</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V31" t="n">
-        <v>190.2718927217162</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W31" t="n">
-        <v>190.2718927217162</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X31" t="n">
-        <v>190.2718927217162</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="Y31" t="n">
-        <v>190.2718927217162</v>
+        <v>184.2708856551153</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1954.141365880777</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="C32" t="n">
-        <v>1954.141365880777</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="D32" t="n">
-        <v>1595.875667274027</v>
+        <v>1006.477909722111</v>
       </c>
       <c r="E32" t="n">
-        <v>1210.087414675782</v>
+        <v>1006.477909722111</v>
       </c>
       <c r="F32" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G32" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6703,16 +6703,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2680.016407938115</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2503.838920252285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2285.204253224348</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U32" t="n">
-        <v>2285.204253224348</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V32" t="n">
-        <v>1954.141365880777</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W32" t="n">
-        <v>1954.141365880777</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X32" t="n">
-        <v>1954.141365880777</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="Y32" t="n">
-        <v>1954.141365880777</v>
+        <v>1364.743608328862</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>429.8656862282825</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>429.8656862282825</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>429.8656862282825</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>260.8658859666149</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>103.117513399145</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
         <v>53.94298182036445</v>
@@ -6882,28 +6882,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T34" t="n">
-        <v>579.9823256406182</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U34" t="n">
-        <v>579.9823256406182</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V34" t="n">
-        <v>579.9823256406182</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W34" t="n">
-        <v>579.9823256406182</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X34" t="n">
-        <v>579.9823256406182</v>
+        <v>58.54282279518134</v>
       </c>
       <c r="Y34" t="n">
-        <v>579.9823256406182</v>
+        <v>58.54282279518134</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>725.8268082199834</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="C35" t="n">
-        <v>725.8268082199834</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D35" t="n">
-        <v>725.8268082199834</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E35" t="n">
-        <v>340.0385556217391</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F35" t="n">
-        <v>340.0385556217391</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G35" t="n">
-        <v>340.0385556217391</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J35" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2169.72394915887</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V35" t="n">
-        <v>1838.661061815299</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W35" t="n">
-        <v>1485.892406545185</v>
+        <v>1540.921096014691</v>
       </c>
       <c r="X35" t="n">
-        <v>1112.426648284105</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y35" t="n">
-        <v>1112.426648284105</v>
+        <v>1167.455337753612</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424006</v>
@@ -7013,46 +7013,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K36" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L36" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M36" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N36" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O36" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P36" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C37" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D37" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E37" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F37" t="n">
-        <v>438.9553738610022</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>269.9555735993346</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
-        <v>112.2072010318647</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7134,13 +7134,13 @@
         <v>438.9553738610022</v>
       </c>
       <c r="W37" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X37" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y37" t="n">
-        <v>438.9553738610022</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.944160717209</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C38" t="n">
-        <v>1546.944160717209</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D38" t="n">
-        <v>1546.944160717209</v>
+        <v>582.4867033121934</v>
       </c>
       <c r="E38" t="n">
-        <v>1161.155908118965</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F38" t="n">
-        <v>750.1700033293573</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
-        <v>332.2061952275442</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533142</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W38" t="n">
-        <v>2697.149091018222</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X38" t="n">
-        <v>2323.683332757143</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y38" t="n">
-        <v>1933.544000781331</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="39">
@@ -7235,49 +7235,49 @@
         <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F39" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S39" t="n">
         <v>2488.762748073963</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036445</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="T40" t="n">
-        <v>500.820796875036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U40" t="n">
-        <v>211.6471865296039</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V40" t="n">
-        <v>211.6471865296039</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W40" t="n">
-        <v>211.6471865296039</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>439.7312344186087</v>
+        <v>1738.389234072494</v>
       </c>
       <c r="C41" t="n">
-        <v>439.7312344186087</v>
+        <v>1369.426717132083</v>
       </c>
       <c r="D41" t="n">
-        <v>439.7312344186087</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E41" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F41" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>1993.54646147304</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V41" t="n">
-        <v>1662.48357412947</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W41" t="n">
-        <v>1309.714918859356</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="X41" t="n">
-        <v>936.2491605982757</v>
+        <v>1794.6828813766</v>
       </c>
       <c r="Y41" t="n">
-        <v>826.3310744827304</v>
+        <v>1738.389234072494</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>211.6471865296039</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="C43" t="n">
-        <v>211.6471865296039</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="D43" t="n">
-        <v>211.6471865296039</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="E43" t="n">
-        <v>211.6471865296039</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="F43" t="n">
-        <v>211.6471865296039</v>
+        <v>139.6424261952883</v>
       </c>
       <c r="G43" t="n">
-        <v>211.6471865296039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
         <v>53.94298182036445</v>
@@ -7596,25 +7596,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T43" t="n">
-        <v>500.820796875036</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U43" t="n">
-        <v>211.6471865296039</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V43" t="n">
-        <v>211.6471865296039</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W43" t="n">
-        <v>211.6471865296039</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X43" t="n">
-        <v>211.6471865296039</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y43" t="n">
-        <v>211.6471865296039</v>
+        <v>286.5323736931987</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>982.8165910026951</v>
+        <v>1216.807289433106</v>
       </c>
       <c r="C44" t="n">
-        <v>982.8165910026951</v>
+        <v>1216.807289433106</v>
       </c>
       <c r="D44" t="n">
-        <v>792.1236065739691</v>
+        <v>1216.807289433106</v>
       </c>
       <c r="E44" t="n">
-        <v>792.1236065739691</v>
+        <v>831.0190368348619</v>
       </c>
       <c r="F44" t="n">
-        <v>381.1377017843616</v>
+        <v>420.0331320452544</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
         <v>53.94298182036444</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2443.387305656313</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2112.324418312743</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W44" t="n">
-        <v>1759.555763042629</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X44" t="n">
-        <v>1759.555763042629</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y44" t="n">
-        <v>1369.416431066817</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="45">
@@ -7736,13 +7736,13 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517452</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537796</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
         <v>2525.076107152625</v>
@@ -7751,10 +7751,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T45" t="n">
         <v>2289.884200196743</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036444</v>
+        <v>77.50760798847037</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036444</v>
+        <v>77.50760798847037</v>
       </c>
       <c r="D46" t="n">
         <v>53.94298182036444</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U46" t="n">
-        <v>598.0446400632119</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036444</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036444</v>
+        <v>259.1560728187101</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036444</v>
+        <v>259.1560728187101</v>
       </c>
     </row>
   </sheetData>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,13 +8546,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>185.8815939223662</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,16 +8777,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>123.047446830095</v>
+        <v>283.7408238317659</v>
       </c>
       <c r="N12" t="n">
-        <v>343.3566784943937</v>
+        <v>387.9064735273546</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>119.5899201578276</v>
       </c>
       <c r="Q12" t="n">
         <v>130.3661252938572</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>185.4747073388578</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>110.075156702059</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.6547625601207</v>
+        <v>82.65476256012185</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747047</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.6414676374705</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747047</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270183</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951766</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627881</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11384,7 +11384,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>346.2692436516219</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11393,7 +11393,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>403.6107296845148</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22597,22 +22597,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22628,28 +22628,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>38.1137230140361</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22676,13 +22676,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>174.07454473664</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22691,7 +22691,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C5" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,10 +22795,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>145.2236497783945</v>
@@ -22862,22 +22862,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.45392126030143</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>180.9337498050905</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -23001,10 +23001,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23038,7 +23038,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -23074,19 +23074,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23105,19 +23105,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23156,19 +23156,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>101.6280177268429</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="10">
@@ -23229,7 +23229,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>89.11637806865207</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>111.4443843516484</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S11" t="n">
         <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
-        <v>95.44404627266911</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
-        <v>51.59574476777942</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>73.08445501505753</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="12">
@@ -23342,13 +23342,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>147.1207868025267</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.2681884137393</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>87.42269284493324</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S12" t="n">
         <v>170.2839726213331</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23442,7 +23442,7 @@
         <v>88.89425643449839</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>80.87383288310646</v>
       </c>
       <c r="R13" t="n">
-        <v>14.25485536161352</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S13" t="n">
         <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
-        <v>227.6757534850358</v>
+        <v>52.54455953715788</v>
       </c>
       <c r="U13" t="n">
         <v>286.3155846423218</v>
@@ -23503,7 +23503,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>330.8786841952546</v>
+        <v>330.8786841952548</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1163791463308</v>
+        <v>178.1163791463314</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>97.14353343492391</v>
       </c>
       <c r="S14" t="n">
-        <v>189.8931039215385</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.4215416234948</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2785039334788</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>164.2845262797114</v>
+        <v>52.54642610924537</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23582,19 +23582,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>88.69793388723679</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>107.898099562911</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9342551549362</v>
+        <v>73.93425515493651</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>72.27434132826724</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>163.3413660663109</v>
       </c>
       <c r="T15" t="n">
-        <v>198.35454715303</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9118361363319</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>77.85906325470387</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,13 +23670,13 @@
         <v>167.6144703808229</v>
       </c>
       <c r="H16" t="n">
-        <v>158.8796654153678</v>
+        <v>55.02716434111515</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>144.1278231270811</v>
       </c>
       <c r="J16" t="n">
-        <v>66.73999539781568</v>
+        <v>66.73999539781622</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>54.63455058802101</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>160.3641786191054</v>
       </c>
       <c r="S16" t="n">
-        <v>159.0483409141954</v>
+        <v>217.4550733994452</v>
       </c>
       <c r="T16" t="n">
         <v>226.33686925111</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>218.8388043680937</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>12.3636867564588</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089716</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23825,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>3.382183422218077e-12</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853708</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549144</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>17.64056718375548</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>76.39977311163915</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>98.17120334210563</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448614</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481189</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089716</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>323.8796165089773</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>3.439026841078885e-12</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,16 +24141,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>87.00133556471252</v>
       </c>
       <c r="H22" t="n">
-        <v>127.6605584296526</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853709</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.12274995491442</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>237.8477049583206</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643572</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>291.5750132227404</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.375077994860476e-12</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>101.7469169782722</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24381,13 +24381,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853708</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549144</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>96.01048066168187</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>281.2220333073996</v>
+        <v>289.1037693583457</v>
       </c>
     </row>
     <row r="27">
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>88.67208961700902</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.3098022590509</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853694</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491423</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>56.01837628787118</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>301.3413757820331</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -24736,19 +24736,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>169.8618544683336</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>16.39642322652793</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24858,7 +24858,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>185.9625171169746</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24925,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>353.5047261489953</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.51704632550513</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>175.2781376168686</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>86.28283552934546</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>45.199959188537</v>
@@ -25122,13 +25122,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>152.5339184271064</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>40.68815470099622</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>50.78177823929092</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>77.28404477295297</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>182.5948585597083</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>200.3735077361105</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25554,16 +25554,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25599,13 +25599,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>152.4816825345735</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>69.58249272689008</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>277.4190334016637</v>
+        <v>330.5072278249885</v>
       </c>
     </row>
     <row r="42">
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>82.46735232787628</v>
       </c>
       <c r="H43" t="n">
-        <v>0.04372617964807546</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923382</v>
@@ -25836,13 +25836,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25870,19 +25870,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>165.8969870362443</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>51.35492129815395</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>125.2864931117875</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,19 +26073,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473796.0964945848</v>
+        <v>473796.0964945847</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>503102.4807735047</v>
+        <v>503102.4807735048</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654497.5688193212</v>
+        <v>654497.5688193179</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>801686.0546829645</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>801686.0546829642</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801686.0546829643</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801686.054682965</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801686.054682965</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>141236.5716516326</v>
       </c>
       <c r="E2" t="n">
-        <v>150604.5581398033</v>
+        <v>150604.5581398032</v>
       </c>
       <c r="F2" t="n">
-        <v>198862.5864584603</v>
+        <v>198862.5864584591</v>
       </c>
       <c r="G2" t="n">
         <v>245779.7185133939</v>
@@ -26334,10 +26334,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133941</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="K2" t="n">
         <v>245779.7185133939</v>
@@ -26355,7 +26355,7 @@
         <v>245779.7185133938</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
     </row>
     <row r="3">
@@ -26377,10 +26377,10 @@
         <v>38628.88112923565</v>
       </c>
       <c r="F3" t="n">
-        <v>195194.8921689369</v>
+        <v>195194.8921689322</v>
       </c>
       <c r="G3" t="n">
-        <v>185152.0893327977</v>
+        <v>185152.0893328031</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910643</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,10 +26401,10 @@
         <v>8757.582995213648</v>
       </c>
       <c r="N3" t="n">
-        <v>49441.87186138771</v>
+        <v>49441.87186138653</v>
       </c>
       <c r="O3" t="n">
-        <v>47231.86264112523</v>
+        <v>47231.86264112659</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>33649.84678425771</v>
       </c>
       <c r="E4" t="n">
-        <v>33777.16046143054</v>
+        <v>33777.16046143055</v>
       </c>
       <c r="F4" t="n">
-        <v>34875.92377764286</v>
+        <v>34875.92377764283</v>
       </c>
       <c r="G4" t="n">
         <v>35944.74664026682</v>
@@ -26441,7 +26441,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="J4" t="n">
-        <v>35944.7466402668</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="K4" t="n">
         <v>35944.74664026682</v>
@@ -26481,19 +26481,19 @@
         <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>33615.28060221611</v>
+        <v>33615.28060221572</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340941</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340941</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340941</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-21463.97542793462</v>
+        <v>-33681.98604797502</v>
       </c>
       <c r="C6" t="n">
-        <v>59305.45610361314</v>
+        <v>47087.44548357265</v>
       </c>
       <c r="D6" t="n">
-        <v>59305.4561036132</v>
+        <v>47087.44548357274</v>
       </c>
       <c r="E6" t="n">
-        <v>60644.73703235693</v>
+        <v>48977.78444103233</v>
       </c>
       <c r="F6" t="n">
-        <v>-64823.51009033556</v>
+        <v>-73651.75513349996</v>
       </c>
       <c r="G6" t="n">
-        <v>-24548.5955230801</v>
+        <v>-30617.00926890472</v>
       </c>
       <c r="H6" t="n">
-        <v>160603.4938097177</v>
+        <v>154535.0800638984</v>
       </c>
       <c r="I6" t="n">
-        <v>160603.4938097176</v>
+        <v>154535.0800638983</v>
       </c>
       <c r="J6" t="n">
-        <v>97543.55121061136</v>
+        <v>91475.13746479212</v>
       </c>
       <c r="K6" t="n">
-        <v>160603.4938097176</v>
+        <v>154535.0800638984</v>
       </c>
       <c r="L6" t="n">
-        <v>160603.4938097176</v>
+        <v>154535.0800638984</v>
       </c>
       <c r="M6" t="n">
-        <v>151845.910814504</v>
+        <v>145777.4970686847</v>
       </c>
       <c r="N6" t="n">
-        <v>111161.6219483299</v>
+        <v>105093.2082025119</v>
       </c>
       <c r="O6" t="n">
-        <v>113371.6311685923</v>
+        <v>107303.2174227718</v>
       </c>
       <c r="P6" t="n">
-        <v>160603.4938097176</v>
+        <v>154535.0800638984</v>
       </c>
     </row>
   </sheetData>
@@ -26749,19 +26749,19 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>208.7913421435365</v>
+        <v>208.7913421435323</v>
       </c>
       <c r="G3" t="n">
-        <v>377.743664217086</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170859</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="I3" t="n">
-        <v>377.743664217086</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170871</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
         <v>377.7436642170866</v>
@@ -26801,28 +26801,28 @@
         <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>478.020219465247</v>
+        <v>478.0202194652421</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545548</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545548</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545548</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="N4" t="n">
         <v>674.2872727545556</v>
@@ -26971,10 +26971,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>173.7700814244112</v>
+        <v>173.770081424407</v>
       </c>
       <c r="G3" t="n">
-        <v>168.9523220735495</v>
+        <v>168.9523220735544</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27023,10 +27023,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="F4" t="n">
-        <v>201.8637057628914</v>
+        <v>201.8637057628865</v>
       </c>
       <c r="G4" t="n">
-        <v>196.2670532893079</v>
+        <v>196.2670532893135</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776599</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27047,10 +27047,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628914</v>
+        <v>201.8637057628866</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893079</v>
+        <v>196.2670532893135</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>35.14222482469643</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628914</v>
+        <v>201.8637057628865</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893079</v>
+        <v>196.2670532893135</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8393621794715028</v>
+        <v>0.8393621794714859</v>
       </c>
       <c r="H14" t="n">
-        <v>8.596117920512532</v>
+        <v>8.596117920512357</v>
       </c>
       <c r="I14" t="n">
-        <v>32.35951042407515</v>
+        <v>32.35951042407449</v>
       </c>
       <c r="J14" t="n">
-        <v>71.23981577991952</v>
+        <v>71.23981577991809</v>
       </c>
       <c r="K14" t="n">
-        <v>106.7700168369483</v>
+        <v>106.7700168369461</v>
       </c>
       <c r="L14" t="n">
-        <v>132.4576471369493</v>
+        <v>132.4576471369466</v>
       </c>
       <c r="M14" t="n">
-        <v>147.3846542961256</v>
+        <v>147.3846542961227</v>
       </c>
       <c r="N14" t="n">
-        <v>149.769492088549</v>
+        <v>149.769492088546</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4230844164293</v>
+        <v>141.4230844164264</v>
       </c>
       <c r="P14" t="n">
-        <v>120.7013306107265</v>
+        <v>120.7013306107241</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.64167255840331</v>
+        <v>90.6416725584015</v>
       </c>
       <c r="R14" t="n">
-        <v>52.72558450622684</v>
+        <v>52.72558450622578</v>
       </c>
       <c r="S14" t="n">
-        <v>19.12696566470689</v>
+        <v>19.12696566470651</v>
       </c>
       <c r="T14" t="n">
-        <v>3.674307940636506</v>
+        <v>3.674307940636432</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06714897435772021</v>
+        <v>0.06714897435771887</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4490983585728898</v>
+        <v>0.4490983585728808</v>
       </c>
       <c r="H15" t="n">
-        <v>4.337344673585542</v>
+        <v>4.337344673585455</v>
       </c>
       <c r="I15" t="n">
-        <v>15.46237769647889</v>
+        <v>15.46237769647857</v>
       </c>
       <c r="J15" t="n">
-        <v>42.42994623692378</v>
+        <v>42.42994623692292</v>
       </c>
       <c r="K15" t="n">
-        <v>72.51953626130739</v>
+        <v>72.51953626130593</v>
       </c>
       <c r="L15" t="n">
-        <v>97.51146596996014</v>
+        <v>97.51146596995818</v>
       </c>
       <c r="M15" t="n">
-        <v>113.7912814682274</v>
+        <v>113.7912814682251</v>
       </c>
       <c r="N15" t="n">
-        <v>116.8029980921658</v>
+        <v>116.8029980921634</v>
       </c>
       <c r="O15" t="n">
-        <v>106.8519239364191</v>
+        <v>106.8519239364169</v>
       </c>
       <c r="P15" t="n">
-        <v>85.75808919099333</v>
+        <v>85.7580891909916</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.32701152590082</v>
+        <v>57.32701152589966</v>
       </c>
       <c r="R15" t="n">
-        <v>27.88349282437645</v>
+        <v>27.88349282437589</v>
       </c>
       <c r="S15" t="n">
-        <v>8.341805037527136</v>
+        <v>8.341805037526969</v>
       </c>
       <c r="T15" t="n">
-        <v>1.810181541791604</v>
+        <v>1.810181541791567</v>
       </c>
       <c r="U15" t="n">
-        <v>0.02954594464295329</v>
+        <v>0.0295459446429527</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3765089776358854</v>
+        <v>0.3765089776358779</v>
       </c>
       <c r="H16" t="n">
-        <v>3.347507092071784</v>
+        <v>3.347507092071717</v>
       </c>
       <c r="I16" t="n">
-        <v>11.32265180017736</v>
+        <v>11.32265180017713</v>
       </c>
       <c r="J16" t="n">
-        <v>26.6191847188571</v>
+        <v>26.61918471885656</v>
       </c>
       <c r="K16" t="n">
-        <v>43.74349758351468</v>
+        <v>43.7434975835138</v>
       </c>
       <c r="L16" t="n">
-        <v>55.97661654779338</v>
+        <v>55.97661654779225</v>
       </c>
       <c r="M16" t="n">
-        <v>59.01949364886884</v>
+        <v>59.01949364886764</v>
       </c>
       <c r="N16" t="n">
-        <v>57.61614200495331</v>
+        <v>57.61614200495215</v>
       </c>
       <c r="O16" t="n">
-        <v>53.21783258438863</v>
+        <v>53.21783258438756</v>
       </c>
       <c r="P16" t="n">
-        <v>45.53704944061653</v>
+        <v>45.53704944061561</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.52749266367401</v>
+        <v>31.52749266367337</v>
       </c>
       <c r="R16" t="n">
-        <v>16.92921275806444</v>
+        <v>16.9292127580641</v>
       </c>
       <c r="S16" t="n">
-        <v>6.561524637527201</v>
+        <v>6.561524637527069</v>
       </c>
       <c r="T16" t="n">
-        <v>1.60872017717151</v>
+        <v>1.608720177171478</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02053685332559377</v>
+        <v>0.02053685332559336</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340043</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140997</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554457</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081574</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630665</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405363</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338299</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119861</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954663</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044134</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633782</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727376</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473542</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472034</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141095</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188902</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890685</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396463</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
-        <v>131.20177816491</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478004</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983119</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N18" t="n">
-        <v>211.3190711736697</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923044</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479575</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034973</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
-        <v>15.0919284713147</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.27496629637266</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619144</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.68117709940786</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644432</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492001</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.1592209281357</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302225</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
-        <v>101.2724571246922</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>106.7776065917248</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N19" t="n">
-        <v>104.2386737666592</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175828</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383786</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329677999</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701158</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695334</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197219</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03715511451315604</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340043</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935140997</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554455</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8865178727433</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081574</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630665</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405362</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338299</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119861</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954662</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044134</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633779</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727376</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.64752920647354</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1214853995472034</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141093</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188899</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890684</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396462</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649099</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478004</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983118</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
-        <v>211.3190711736696</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923043</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479574</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639063</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034972</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S21" t="n">
-        <v>15.0919284713147</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372658</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619142</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078598</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H22" t="n">
-        <v>6.05628366564443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492001</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813568</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302224</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L22" t="n">
-        <v>101.2724571246922</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M22" t="n">
-        <v>106.7776065917248</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N22" t="n">
-        <v>104.2386737666592</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175825</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383784</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329677997</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701158</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S22" t="n">
-        <v>11.87105908695333</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197218</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03715511451315603</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340043</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140997</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554457</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081574</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630665</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405363</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N23" t="n">
-        <v>270.9617944338299</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119861</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954663</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
-        <v>163.9882055044134</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633782</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727376</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473542</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1214853995472034</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141095</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188902</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890685</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396463</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
-        <v>131.20177816491</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
-        <v>176.4169820478004</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M24" t="n">
-        <v>205.8702969983119</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N24" t="n">
-        <v>211.3190711736697</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O24" t="n">
-        <v>193.3156655923044</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479575</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034973</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.0919284713147</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.27496629637266</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619144</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.68117709940786</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644432</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492001</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.1592209281357</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302225</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
-        <v>101.2724571246922</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M25" t="n">
-        <v>106.7776065917248</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N25" t="n">
-        <v>104.2386737666592</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175828</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383786</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329677999</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701158</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S25" t="n">
-        <v>11.87105908695334</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197219</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03715511451315604</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.167479908158</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405371</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N26" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119869</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633809</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473561</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1214853995472038</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141118</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188924</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396486</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M27" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N27" t="n">
-        <v>211.3190711736703</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O27" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034988</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619159</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078619</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813583</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302248</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M28" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N28" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175855</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383811</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678015</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S28" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03715511451315615</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35266,13 +35266,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>43.28534947792182</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>138.7877391315785</v>
@@ -35497,16 +35497,16 @@
         <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>160.6933770016709</v>
       </c>
       <c r="N12" t="n">
-        <v>231.6067186693945</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O12" t="n">
         <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>198.8728484821096</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>59.29052642530701</v>
+        <v>59.29052642530557</v>
       </c>
       <c r="K14" t="n">
-        <v>210.8255783631325</v>
+        <v>210.8255783631303</v>
       </c>
       <c r="L14" t="n">
-        <v>314.3524467174125</v>
+        <v>314.3524467174099</v>
       </c>
       <c r="M14" t="n">
-        <v>366.5519545616854</v>
+        <v>366.5519545616825</v>
       </c>
       <c r="N14" t="n">
-        <v>357.7033529039423</v>
+        <v>357.7033529039393</v>
       </c>
       <c r="O14" t="n">
-        <v>292.1250542574879</v>
+        <v>292.1250542574851</v>
       </c>
       <c r="P14" t="n">
-        <v>211.2670430269396</v>
+        <v>211.2670430269372</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.65097334385851</v>
+        <v>80.65097334385669</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.68335491066592</v>
+        <v>41.68335491066507</v>
       </c>
       <c r="K15" t="n">
-        <v>199.143334299527</v>
+        <v>199.1433342995255</v>
       </c>
       <c r="L15" t="n">
-        <v>329.7974314935451</v>
+        <v>329.7974314935432</v>
       </c>
       <c r="M15" t="n">
-        <v>437.362311296209</v>
+        <v>437.3623112962067</v>
       </c>
       <c r="N15" t="n">
-        <v>464.803660352386</v>
+        <v>464.8036603523836</v>
       </c>
       <c r="O15" t="n">
-        <v>149.7303868308325</v>
+        <v>358.117998768702</v>
       </c>
       <c r="P15" t="n">
-        <v>270.2464504166003</v>
+        <v>61.85883847872033</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.47400575763183</v>
+        <v>21.47400575763095</v>
       </c>
       <c r="L16" t="n">
-        <v>83.56664180810952</v>
+        <v>83.56664180810839</v>
       </c>
       <c r="M16" t="n">
-        <v>98.60337061070942</v>
+        <v>98.60337061070823</v>
       </c>
       <c r="N16" t="n">
-        <v>101.7483143841819</v>
+        <v>101.7483143841807</v>
       </c>
       <c r="O16" t="n">
-        <v>77.80296049842831</v>
+        <v>77.80296049842724</v>
       </c>
       <c r="P16" t="n">
-        <v>42.81560870551002</v>
+        <v>42.8156087055091</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343416</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435297</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.814464806096</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492232</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530447</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770677</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031296</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713854</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262934</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.31973343389</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245895</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735644</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.3752747153553</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.8709020871394</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
-        <v>128.8624823850083</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N19" t="n">
-        <v>148.3708461458878</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873135</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343416</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435297</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M20" t="n">
-        <v>485.814464806096</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492231</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530447</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116793</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.01733575770676</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031296</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713854</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262933</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338898</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245894</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735643</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>54.3752747153553</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713938</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L22" t="n">
-        <v>128.8624823850083</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M22" t="n">
-        <v>146.3614835535653</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N22" t="n">
-        <v>148.3708461458878</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8664146557979</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873132</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343416</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435297</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M23" t="n">
-        <v>485.814464806096</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492232</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530447</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.01733575770677</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
-        <v>257.8255762031296</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713854</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M24" t="n">
-        <v>529.4413268262934</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.31973343389</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245895</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735644</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.3752747153553</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.8709020871394</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
-        <v>128.8624823850083</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M25" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N25" t="n">
-        <v>148.3708461458878</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O25" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873135</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.9372285181295</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N26" t="n">
-        <v>478.895655249224</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530455</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713859</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M27" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338905</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730617</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713963</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
-        <v>128.8624823850087</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M28" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N28" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O28" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873159</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,7 +37159,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37168,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37390,7 +37390,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307146</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37870,7 +37870,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>410.0055067279158</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
         <v>559.3197334338902</v>
@@ -38113,7 +38113,7 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q45" t="n">
         <v>173.8110948137341</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>557956.0412616149</v>
+        <v>624273.6564811253</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>406463.2981009822</v>
+        <v>406463.2981009823</v>
       </c>
     </row>
     <row r="8">
@@ -664,70 +664,70 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>63.88882306452221</v>
       </c>
       <c r="U3" t="n">
-        <v>51.86683734433478</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>71.01467844038824</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>83.16757960909541</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>19.23097888973112</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>52.42556848774762</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776592</v>
       </c>
     </row>
     <row r="9">
@@ -1274,13 +1274,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>29.05241763862477</v>
+        <v>29.0524176386251</v>
       </c>
     </row>
     <row r="10">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="C11" t="n">
+      <c r="G11" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="D11" t="n">
-        <v>243.2386572690346</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>20.75911149906594</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.1565137023555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,16 +1451,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>10.52429365287424</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9364262421938</v>
+        <v>208.731143873963</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1514,10 +1514,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
         <v>175.1311939478779</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>308.6418302391268</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.4633753356636</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>189.8931039215388</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>219.4215416234949</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2785039334788</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>296.6945426081676</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1697,16 +1697,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>48.19648491740096</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>73.93425515493631</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>163.3413660663107</v>
       </c>
       <c r="T15" t="n">
-        <v>198.35454715303</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9118361363319</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>69.88889423311663</v>
       </c>
     </row>
     <row r="16">
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>103.8525010742527</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>131.0102864828627</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,10 +1861,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.0499486797337</v>
       </c>
       <c r="I17" t="n">
-        <v>139.5676294884024</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>149.309882277398</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>45.85148416949169</v>
+        <v>293.6850490363661</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2180,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>80.30846669433839</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>57.66595549467266</v>
+        <v>290.5286403308934</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2414,10 +2414,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78.08506320366507</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>234.2559520454602</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>60.13719935906702</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>97.1341692977079</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>59.94338340120333</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>298.6283627759813</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748116</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>199.8692462101354</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>129.0246247964033</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>89.30725745073156</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>53.37131959271611</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>92.68458756041078</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.553842565068717</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>212.7389733439011</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>74.08031997323604</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>94.63926978364033</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>141.6178196669931</v>
       </c>
     </row>
     <row r="38">
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>199.3355115125534</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>94.91982427513194</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3675,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>14.82811972447732</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>59.66385641544537</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3757,10 +3757,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>325.5402370444218</v>
       </c>
       <c r="Y41" t="n">
-        <v>55.73071083106505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>84.84244993117463</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,22 +3982,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>362.429248722641</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>64.46452822738297</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>23.32897990642487</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>68.19029374363595</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
         <v>19.28114311021272</v>
@@ -4360,22 +4360,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4418,40 +4418,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U3" t="n">
-        <v>434.8929420806995</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V3" t="n">
-        <v>434.8929420806995</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W3" t="n">
-        <v>434.8929420806995</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0414418751666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
         <v>19.28114311021272</v>
@@ -4521,10 +4521,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>250.5774899069169</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>250.5774899069169</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>104.0429319338019</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4652,10 +4652,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>670.0450503124422</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>670.0450503124422</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>434.8929420806995</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>434.8929420806995</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>399.5118995681682</v>
       </c>
     </row>
     <row r="7">
@@ -4749,19 +4749,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389065</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389065</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389065</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389065</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389065</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K8" t="n">
         <v>122.2961490211351</v>
@@ -4813,43 +4813,43 @@
         <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>519.3476278686983</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759377</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185857</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424096</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271069</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271069</v>
       </c>
       <c r="T8" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271069</v>
       </c>
       <c r="U8" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830066</v>
       </c>
       <c r="V8" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830066</v>
       </c>
       <c r="W8" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830066</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830066</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389065</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299845</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990953</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950738</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.0191193839564</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973073</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.0571555106367</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>735.8335372470258</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>500.6814290152831</v>
       </c>
       <c r="W9" t="n">
-        <v>257.2326523711826</v>
+        <v>257.2326523711829</v>
       </c>
       <c r="X9" t="n">
-        <v>49.38115216564972</v>
+        <v>49.38115216565006</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>20.03527576299845</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>46.59526811792571</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>85.78330631014789</v>
       </c>
       <c r="N10" t="n">
         <v>129.4741569655842</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021274</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>546.7341079359765</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="C11" t="n">
-        <v>267.7881344992537</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="D11" t="n">
-        <v>22.09252109618844</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="E11" t="n">
-        <v>22.09252109618844</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="F11" t="n">
-        <v>22.09252109618844</v>
+        <v>322.0072940269172</v>
       </c>
       <c r="G11" t="n">
-        <v>22.09252109618844</v>
+        <v>43.06132059019444</v>
       </c>
       <c r="H11" t="n">
-        <v>22.09252109618844</v>
+        <v>43.06132059019444</v>
       </c>
       <c r="I11" t="n">
         <v>22.09252109618844</v>
@@ -5044,10 +5044,10 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K11" t="n">
-        <v>142.8373253438683</v>
+        <v>142.8373253438684</v>
       </c>
       <c r="L11" t="n">
-        <v>344.9085595412868</v>
+        <v>344.9085595412869</v>
       </c>
       <c r="M11" t="n">
         <v>586.3582880173956</v>
@@ -5056,7 +5056,7 @@
         <v>817.0829279823542</v>
       </c>
       <c r="O11" t="n">
-        <v>989.7620250901066</v>
+        <v>989.7620250901064</v>
       </c>
       <c r="P11" t="n">
         <v>1099.465256491931</v>
@@ -5071,22 +5071,22 @@
         <v>1104.626054809422</v>
       </c>
       <c r="T11" t="n">
-        <v>1104.626054809422</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="U11" t="n">
-        <v>1104.626054809422</v>
+        <v>879.8992409003627</v>
       </c>
       <c r="V11" t="n">
-        <v>1104.626054809422</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="W11" t="n">
-        <v>1104.626054809422</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="X11" t="n">
-        <v>1104.626054809422</v>
+        <v>600.9532674636399</v>
       </c>
       <c r="Y11" t="n">
-        <v>825.6800813726992</v>
+        <v>600.9532674636399</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>179.2576787186714</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="C12" t="n">
-        <v>179.2576787186714</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D12" t="n">
-        <v>179.2576787186714</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E12" t="n">
-        <v>168.6270790693035</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F12" t="n">
         <v>22.09252109618844</v>
@@ -5123,19 +5123,19 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K12" t="n">
-        <v>159.4923828364511</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L12" t="n">
-        <v>405.6478494291521</v>
+        <v>268.2479876888894</v>
       </c>
       <c r="M12" t="n">
-        <v>564.7342926608062</v>
+        <v>541.6429362542212</v>
       </c>
       <c r="N12" t="n">
-        <v>838.1292412261381</v>
+        <v>815.0378848195531</v>
       </c>
       <c r="O12" t="n">
-        <v>1104.626054809422</v>
+        <v>1081.534698402837</v>
       </c>
       <c r="P12" t="n">
         <v>1104.626054809422</v>
@@ -5153,19 +5153,19 @@
         <v>1104.626054809422</v>
       </c>
       <c r="U12" t="n">
-        <v>876.4074424435696</v>
+        <v>893.7865155427926</v>
       </c>
       <c r="V12" t="n">
-        <v>641.2553342118269</v>
+        <v>658.6344073110499</v>
       </c>
       <c r="W12" t="n">
-        <v>387.0179774836253</v>
+        <v>404.3970505828483</v>
       </c>
       <c r="X12" t="n">
-        <v>387.0179774836253</v>
+        <v>196.5455503773155</v>
       </c>
       <c r="Y12" t="n">
-        <v>179.2576787186714</v>
+        <v>196.5455503773155</v>
       </c>
     </row>
     <row r="13">
@@ -5229,13 +5229,13 @@
         <v>198.9927170031359</v>
       </c>
       <c r="T13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="U13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="V13" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="W13" t="n">
         <v>22.09252109618844</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>867.8773964232548</v>
+        <v>718.9635589815978</v>
       </c>
       <c r="C14" t="n">
-        <v>867.8773964232548</v>
+        <v>350.0010420411861</v>
       </c>
       <c r="D14" t="n">
-        <v>867.8773964232548</v>
+        <v>38.24161755721962</v>
       </c>
       <c r="E14" t="n">
-        <v>867.8773964232548</v>
+        <v>38.24161755721962</v>
       </c>
       <c r="F14" t="n">
-        <v>456.8914916336472</v>
+        <v>38.24161755721962</v>
       </c>
       <c r="G14" t="n">
-        <v>38.24161755721936</v>
+        <v>38.24161755721962</v>
       </c>
       <c r="H14" t="n">
-        <v>38.24161755721936</v>
+        <v>38.24161755721962</v>
       </c>
       <c r="I14" t="n">
-        <v>38.24161755721936</v>
+        <v>38.24161755721962</v>
       </c>
       <c r="J14" t="n">
-        <v>96.93923871827189</v>
+        <v>96.93923871827303</v>
       </c>
       <c r="K14" t="n">
-        <v>305.6565612977709</v>
+        <v>305.6565612977735</v>
       </c>
       <c r="L14" t="n">
-        <v>616.8654835480064</v>
+        <v>616.865483548011</v>
       </c>
       <c r="M14" t="n">
-        <v>979.7519185640722</v>
+        <v>979.7519185640783</v>
       </c>
       <c r="N14" t="n">
-        <v>1333.878237938972</v>
+        <v>1333.87823793898</v>
       </c>
       <c r="O14" t="n">
-        <v>1623.082041653882</v>
+        <v>1623.082041653892</v>
       </c>
       <c r="P14" t="n">
-        <v>1832.23641425055</v>
+        <v>1832.236414250561</v>
       </c>
       <c r="Q14" t="n">
-        <v>1912.080877860968</v>
+        <v>1912.080877860981</v>
       </c>
       <c r="R14" t="n">
-        <v>1912.080877860968</v>
+        <v>1912.080877860981</v>
       </c>
       <c r="S14" t="n">
-        <v>1720.269661778606</v>
+        <v>1912.080877860981</v>
       </c>
       <c r="T14" t="n">
-        <v>1498.631740946793</v>
+        <v>1690.442957029168</v>
       </c>
       <c r="U14" t="n">
-        <v>1498.631740946793</v>
+        <v>1436.62628638929</v>
       </c>
       <c r="V14" t="n">
-        <v>1167.568853603222</v>
+        <v>1105.56339904572</v>
       </c>
       <c r="W14" t="n">
-        <v>867.8773964232548</v>
+        <v>1105.56339904572</v>
       </c>
       <c r="X14" t="n">
-        <v>867.8773964232548</v>
+        <v>1105.56339904572</v>
       </c>
       <c r="Y14" t="n">
-        <v>867.8773964232548</v>
+        <v>1105.56339904572</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>410.3123745979825</v>
+        <v>582.8446802857799</v>
       </c>
       <c r="C15" t="n">
-        <v>235.8593453168554</v>
+        <v>408.3916510046529</v>
       </c>
       <c r="D15" t="n">
-        <v>86.92493565560417</v>
+        <v>259.4572413434016</v>
       </c>
       <c r="E15" t="n">
-        <v>86.92493565560417</v>
+        <v>259.4572413434016</v>
       </c>
       <c r="F15" t="n">
-        <v>86.92493565560417</v>
+        <v>112.9226833702866</v>
       </c>
       <c r="G15" t="n">
-        <v>38.24161755721936</v>
+        <v>112.9226833702866</v>
       </c>
       <c r="H15" t="n">
-        <v>38.24161755721936</v>
+        <v>112.9226833702866</v>
       </c>
       <c r="I15" t="n">
-        <v>38.24161755721936</v>
+        <v>38.24161755721962</v>
       </c>
       <c r="J15" t="n">
-        <v>79.50813891877777</v>
+        <v>79.50813891877857</v>
       </c>
       <c r="K15" t="n">
-        <v>276.660039875308</v>
+        <v>276.6600398753098</v>
       </c>
       <c r="L15" t="n">
-        <v>603.1594970539157</v>
+        <v>603.1594970539188</v>
       </c>
       <c r="M15" t="n">
-        <v>1036.14818523716</v>
+        <v>1036.148185237165</v>
       </c>
       <c r="N15" t="n">
-        <v>1496.30380898602</v>
+        <v>1496.303808986026</v>
       </c>
       <c r="O15" t="n">
-        <v>1850.840627767035</v>
+        <v>1518.388592024577</v>
       </c>
       <c r="P15" t="n">
-        <v>1912.080877860968</v>
+        <v>1785.93257793701</v>
       </c>
       <c r="Q15" t="n">
-        <v>1912.080877860968</v>
+        <v>1912.080877860981</v>
       </c>
       <c r="R15" t="n">
-        <v>1912.080877860968</v>
+        <v>1912.080877860981</v>
       </c>
       <c r="S15" t="n">
-        <v>1912.080877860968</v>
+        <v>1747.089599006121</v>
       </c>
       <c r="T15" t="n">
-        <v>1711.722749423564</v>
+        <v>1747.089599006121</v>
       </c>
       <c r="U15" t="n">
-        <v>1483.528975548481</v>
+        <v>1518.895825131039</v>
       </c>
       <c r="V15" t="n">
-        <v>1248.376867316739</v>
+        <v>1283.743716899296</v>
       </c>
       <c r="W15" t="n">
-        <v>994.1395105885372</v>
+        <v>1029.506360171094</v>
       </c>
       <c r="X15" t="n">
-        <v>786.2880103830043</v>
+        <v>821.6548599655616</v>
       </c>
       <c r="Y15" t="n">
-        <v>578.5277116180505</v>
+        <v>751.0600173058479</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>459.9924103041383</v>
+        <v>38.24161755721962</v>
       </c>
       <c r="C16" t="n">
-        <v>291.0562273762314</v>
+        <v>38.24161755721962</v>
       </c>
       <c r="D16" t="n">
-        <v>291.0562273762314</v>
+        <v>38.24161755721962</v>
       </c>
       <c r="E16" t="n">
-        <v>143.1431337938383</v>
+        <v>38.24161755721962</v>
       </c>
       <c r="F16" t="n">
-        <v>143.1431337938383</v>
+        <v>38.24161755721962</v>
       </c>
       <c r="G16" t="n">
-        <v>143.1431337938383</v>
+        <v>38.24161755721962</v>
       </c>
       <c r="H16" t="n">
-        <v>38.24161755721936</v>
+        <v>38.24161755721962</v>
       </c>
       <c r="I16" t="n">
-        <v>38.24161755721936</v>
+        <v>38.24161755721962</v>
       </c>
       <c r="J16" t="n">
-        <v>38.24161755721936</v>
+        <v>38.24161755721962</v>
       </c>
       <c r="K16" t="n">
-        <v>59.500883257274</v>
+        <v>59.50088325727482</v>
       </c>
       <c r="L16" t="n">
-        <v>142.2318586473013</v>
+        <v>142.2318586473028</v>
       </c>
       <c r="M16" t="n">
-        <v>239.8491955519024</v>
+        <v>239.8491955519047</v>
       </c>
       <c r="N16" t="n">
-        <v>340.5800267922414</v>
+        <v>340.5800267922444</v>
       </c>
       <c r="O16" t="n">
-        <v>417.6049576856843</v>
+        <v>417.604957685688</v>
       </c>
       <c r="P16" t="n">
-        <v>459.9924103041383</v>
+        <v>459.9924103041426</v>
       </c>
       <c r="Q16" t="n">
-        <v>459.9924103041383</v>
+        <v>459.9924103041426</v>
       </c>
       <c r="R16" t="n">
-        <v>459.9924103041383</v>
+        <v>459.9924103041426</v>
       </c>
       <c r="S16" t="n">
-        <v>459.9924103041383</v>
+        <v>459.9924103041426</v>
       </c>
       <c r="T16" t="n">
-        <v>459.9924103041383</v>
+        <v>459.9924103041426</v>
       </c>
       <c r="U16" t="n">
-        <v>459.9924103041383</v>
+        <v>327.6587875941802</v>
       </c>
       <c r="V16" t="n">
-        <v>459.9924103041383</v>
+        <v>327.6587875941802</v>
       </c>
       <c r="W16" t="n">
-        <v>459.9924103041383</v>
+        <v>38.24161755721962</v>
       </c>
       <c r="X16" t="n">
-        <v>459.9924103041383</v>
+        <v>38.24161755721962</v>
       </c>
       <c r="Y16" t="n">
-        <v>459.9924103041383</v>
+        <v>38.24161755721962</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1409.658350833668</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="C17" t="n">
-        <v>1409.658350833668</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="D17" t="n">
-        <v>1409.658350833668</v>
+        <v>1557.620289410771</v>
       </c>
       <c r="E17" t="n">
-        <v>1023.870098235424</v>
+        <v>1171.832036812526</v>
       </c>
       <c r="F17" t="n">
-        <v>612.8841934458164</v>
+        <v>760.8461320229187</v>
       </c>
       <c r="G17" t="n">
-        <v>194.9203853440033</v>
+        <v>342.8823239211056</v>
       </c>
       <c r="H17" t="n">
-        <v>194.9203853440033</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U17" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V17" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W17" t="n">
-        <v>2169.72394915887</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X17" t="n">
-        <v>1796.25819089779</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y17" t="n">
-        <v>1796.25819089779</v>
+        <v>1915.885988017521</v>
       </c>
     </row>
     <row r="18">
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L18" t="n">
         <v>713.8062203571349</v>
@@ -5618,25 +5618,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T19" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U19" t="n">
-        <v>352.6741383092202</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V19" t="n">
-        <v>352.6741383092202</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W19" t="n">
-        <v>352.6741383092202</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X19" t="n">
-        <v>201.8560754027576</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y19" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1036.358670716696</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="C20" t="n">
-        <v>1036.358670716696</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="D20" t="n">
-        <v>1036.358670716696</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="E20" t="n">
-        <v>1036.358670716696</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
@@ -5776,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T20" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U20" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V20" t="n">
-        <v>2212.181128500977</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W20" t="n">
-        <v>1859.412473230863</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="X20" t="n">
-        <v>1813.097842756629</v>
+        <v>1189.240841861986</v>
       </c>
       <c r="Y20" t="n">
-        <v>1422.958510780817</v>
+        <v>799.1015098861747</v>
       </c>
     </row>
     <row r="21">
@@ -5807,73 +5807,73 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C22" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D22" t="n">
-        <v>429.8656862282825</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E22" t="n">
-        <v>281.9525926458894</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F22" t="n">
-        <v>135.062645147979</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5934,28 +5934,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T22" t="n">
-        <v>579.9823256406182</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U22" t="n">
-        <v>579.9823256406182</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V22" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W22" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X22" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y22" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1780.41262192169</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C23" t="n">
-        <v>1780.41262192169</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D23" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E23" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F23" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>1780.41262192169</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="X23" t="n">
-        <v>1780.41262192169</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="Y23" t="n">
-        <v>1780.41262192169</v>
+        <v>2013.546485980901</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6107,10 +6107,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y24" t="n">
         <v>1156.713312237151</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E25" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6180,19 +6180,19 @@
         <v>579.9823256406182</v>
       </c>
       <c r="U25" t="n">
-        <v>579.9823256406182</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V25" t="n">
-        <v>579.9823256406182</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>290.5651556036576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X25" t="n">
-        <v>290.5651556036576</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
-        <v>290.5651556036576</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="26">
@@ -6226,13 +6226,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6265,10 +6265,10 @@
         <v>2247.308246834948</v>
       </c>
       <c r="W26" t="n">
-        <v>1894.539591564834</v>
+        <v>2186.563601017709</v>
       </c>
       <c r="X26" t="n">
-        <v>1521.073833303755</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y26" t="n">
         <v>1422.958510780817</v>
@@ -6311,19 +6311,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.2948950230955</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C28" t="n">
-        <v>409.2948950230955</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D28" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E28" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6405,31 +6405,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>409.2948950230955</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>409.2948950230955</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>409.2948950230955</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1268.680947310029</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.680947310029</v>
+        <v>1194.514187280852</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.680947310029</v>
+        <v>836.2484886741015</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117851</v>
+        <v>836.2484886741015</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>836.2484886741015</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533127</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733114</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224065</v>
       </c>
       <c r="M29" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N29" t="n">
         <v>1836.345445977174</v>
@@ -6487,10 +6487,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
         <v>2247.308246834948</v>
@@ -6499,16 +6499,16 @@
         <v>2247.308246834948</v>
       </c>
       <c r="V29" t="n">
-        <v>2247.308246834948</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W29" t="n">
-        <v>2247.308246834948</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X29" t="n">
-        <v>2045.420119349963</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y29" t="n">
-        <v>1655.280787374151</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204944</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641974</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598695</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N30" t="n">
         <v>1748.695370517452</v>
@@ -6569,16 +6569,16 @@
         <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>184.2708856551153</v>
+        <v>438.9553738610028</v>
       </c>
       <c r="C31" t="n">
-        <v>184.2708856551153</v>
+        <v>438.9553738610028</v>
       </c>
       <c r="D31" t="n">
-        <v>184.2708856551153</v>
+        <v>438.9553738610028</v>
       </c>
       <c r="E31" t="n">
-        <v>184.2708856551153</v>
+        <v>291.0422802786097</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036444</v>
+        <v>144.1523327806994</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L31" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U31" t="n">
-        <v>438.9553738610022</v>
+        <v>438.9553738610028</v>
       </c>
       <c r="V31" t="n">
-        <v>184.2708856551153</v>
+        <v>438.9553738610028</v>
       </c>
       <c r="W31" t="n">
-        <v>184.2708856551153</v>
+        <v>438.9553738610028</v>
       </c>
       <c r="X31" t="n">
-        <v>184.2708856551153</v>
+        <v>438.9553738610028</v>
       </c>
       <c r="Y31" t="n">
-        <v>184.2708856551153</v>
+        <v>438.9553738610028</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1364.743608328862</v>
+        <v>792.1236065739691</v>
       </c>
       <c r="C32" t="n">
-        <v>1364.743608328862</v>
+        <v>792.1236065739691</v>
       </c>
       <c r="D32" t="n">
-        <v>1006.477909722111</v>
+        <v>792.1236065739691</v>
       </c>
       <c r="E32" t="n">
-        <v>1006.477909722111</v>
+        <v>792.1236065739691</v>
       </c>
       <c r="F32" t="n">
-        <v>952.5674858910851</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T32" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U32" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V32" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W32" t="n">
-        <v>1364.743608328862</v>
+        <v>1568.862778613903</v>
       </c>
       <c r="X32" t="n">
-        <v>1364.743608328862</v>
+        <v>1568.862778613903</v>
       </c>
       <c r="Y32" t="n">
-        <v>1364.743608328862</v>
+        <v>1178.723446638091</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C33" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E33" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6800,22 +6800,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>286.5323736931987</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="U34" t="n">
-        <v>286.5323736931987</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="V34" t="n">
-        <v>286.5323736931987</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5323736931987</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X34" t="n">
-        <v>58.54282279518134</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y34" t="n">
-        <v>58.54282279518134</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1167.455337753612</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C35" t="n">
-        <v>952.5674858910851</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D35" t="n">
-        <v>952.5674858910851</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>952.5674858910851</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
         <v>169.7108380533141</v>
@@ -6943,13 +6943,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6970,19 +6970,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.752638628376</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="V35" t="n">
-        <v>1893.689751284805</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="W35" t="n">
-        <v>1540.921096014691</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="X35" t="n">
-        <v>1167.455337753612</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="Y35" t="n">
-        <v>1167.455337753612</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>149.5382038240415</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C37" t="n">
-        <v>149.5382038240415</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D37" t="n">
-        <v>149.5382038240415</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7122,25 +7122,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U37" t="n">
-        <v>438.9553738610022</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V37" t="n">
-        <v>438.9553738610022</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W37" t="n">
-        <v>149.5382038240415</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X37" t="n">
-        <v>149.5382038240415</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y37" t="n">
-        <v>149.5382038240415</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1309.714918859356</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C38" t="n">
-        <v>940.7524019189439</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D38" t="n">
-        <v>582.4867033121934</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E38" t="n">
-        <v>381.1377017843616</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F38" t="n">
-        <v>381.1377017843616</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G38" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J38" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2327.607124141857</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.48357412947</v>
+        <v>2327.607124141857</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859356</v>
+        <v>2327.607124141857</v>
       </c>
       <c r="X38" t="n">
-        <v>1309.714918859356</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y38" t="n">
-        <v>1309.714918859356</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E39" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7265,19 +7265,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
         <v>2488.762748073963</v>
@@ -7292,10 +7292,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>667.8624625746712</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C40" t="n">
-        <v>667.8624625746712</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D40" t="n">
-        <v>517.7458231623355</v>
+        <v>363.7239216122612</v>
       </c>
       <c r="E40" t="n">
-        <v>369.8327295799424</v>
+        <v>215.810828029868</v>
       </c>
       <c r="F40" t="n">
-        <v>222.942782082032</v>
+        <v>68.92088053195769</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036445</v>
+        <v>68.92088053195769</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>667.8624625746712</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>667.8624625746712</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U40" t="n">
-        <v>667.8624625746712</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V40" t="n">
-        <v>667.8624625746712</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W40" t="n">
-        <v>667.8624625746712</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X40" t="n">
-        <v>667.8624625746712</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y40" t="n">
-        <v>667.8624625746712</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1738.389234072494</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="C41" t="n">
-        <v>1369.426717132083</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="D41" t="n">
-        <v>1011.161018525332</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E41" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="F41" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7444,19 +7444,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U41" t="n">
-        <v>2478.514423990285</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="V41" t="n">
-        <v>2147.451536646714</v>
+        <v>2224.752638628376</v>
       </c>
       <c r="W41" t="n">
-        <v>1794.6828813766</v>
+        <v>1871.983983358262</v>
       </c>
       <c r="X41" t="n">
-        <v>1794.6828813766</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="Y41" t="n">
-        <v>1738.389234072494</v>
+        <v>1543.155461091169</v>
       </c>
     </row>
     <row r="42">
@@ -7466,34 +7466,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L42" t="n">
         <v>713.8062203571349</v>
@@ -7502,13 +7502,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7529,10 +7529,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
         <v>1156.713312237151</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C43" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D43" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F43" t="n">
-        <v>139.6424261952883</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7596,25 +7596,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>286.5323736931987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>286.5323736931987</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>286.5323736931987</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X43" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y43" t="n">
-        <v>286.5323736931987</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1216.807289433106</v>
+        <v>863.1126181035238</v>
       </c>
       <c r="C44" t="n">
-        <v>1216.807289433106</v>
+        <v>863.1126181035238</v>
       </c>
       <c r="D44" t="n">
-        <v>1216.807289433106</v>
+        <v>504.8469194967733</v>
       </c>
       <c r="E44" t="n">
-        <v>831.0190368348619</v>
+        <v>119.0586668985291</v>
       </c>
       <c r="F44" t="n">
-        <v>420.0331320452544</v>
+        <v>119.0586668985291</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>119.0586668985291</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>119.0586668985291</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036444</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>1993.54646147304</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W44" t="n">
-        <v>1993.54646147304</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X44" t="n">
-        <v>1993.54646147304</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y44" t="n">
-        <v>1603.407129497228</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036444</v>
@@ -7745,31 +7745,31 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>77.50760798847037</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C46" t="n">
-        <v>77.50760798847037</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036444</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036444</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036444</v>
@@ -7833,25 +7833,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>259.1560728187101</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>259.1560728187101</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X46" t="n">
-        <v>259.1560728187101</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y46" t="n">
-        <v>259.1560728187101</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8066,19 +8066,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>244.7225752110828</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>303.312501347746</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8537,22 +8537,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>383.1483227996775</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974531</v>
       </c>
       <c r="O9" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221036</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,22 +8771,22 @@
         <v>119.7207117878867</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>283.7408238317659</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N12" t="n">
-        <v>387.9064735273546</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>119.5899201578276</v>
+        <v>142.9145225887215</v>
       </c>
       <c r="Q12" t="n">
         <v>130.3661252938572</v>
@@ -9020,13 +9020,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>58.05218216312767</v>
       </c>
       <c r="P15" t="n">
-        <v>110.075156702059</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.65476256012185</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,10 +9719,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050812</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9959,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169141991</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451751</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.9065542451756</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L36" t="n">
-        <v>327.4218609627881</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.9065542451756</v>
+        <v>359.9065542451752</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22552,13 +22552,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
@@ -22600,7 +22600,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>136.2759056302994</v>
       </c>
       <c r="U3" t="n">
-        <v>174.07454473664</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>330.3082731757329</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>344.2880590747468</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22868,16 +22868,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>54.17593755411522</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,13 +22913,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>180.9337498050905</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22928,10 +22928,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22989,7 +22989,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23035,10 +23035,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.2884486374759</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>287.0492336280195</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>10.33136403017733</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783944</v>
       </c>
     </row>
     <row r="9">
@@ -23162,13 +23162,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326044</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>176.6302781386796</v>
+        <v>176.6302781386793</v>
       </c>
     </row>
     <row r="10">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>106.5773279611251</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>89.11637806865207</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>111.4443843516484</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G11" t="n">
-        <v>415.1619485273195</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H11" t="n">
         <v>338.0329468943008</v>
       </c>
       <c r="I11" t="n">
-        <v>205.0481221176458</v>
+        <v>184.2890106185799</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>205.8118405263978</v>
       </c>
       <c r="T11" t="n">
-        <v>222.4795457699687</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3343897888113</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>51.59574476777942</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>110.0814249536981</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,16 +23339,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>147.1207868025267</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.2681884137393</v>
@@ -23393,7 +23393,7 @@
         <v>199.8611009721718</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>17.20528236823077</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23469,7 +23469,7 @@
         <v>222.9160118599466</v>
       </c>
       <c r="T13" t="n">
-        <v>52.54455953715788</v>
+        <v>227.6757534850358</v>
       </c>
       <c r="U13" t="n">
         <v>286.3155846423218</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>111.3918043887131</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>46.0412113815562</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.4633753356636</v>
       </c>
       <c r="H14" t="n">
-        <v>330.8786841952548</v>
+        <v>330.8786841952547</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1163791463314</v>
+        <v>178.116379146331</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>97.14353343492391</v>
+        <v>97.14353343492323</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>189.8931039215386</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2785039334788</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>52.54642610924537</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23585,16 +23585,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>88.69793388723679</v>
+        <v>136.8944188046378</v>
       </c>
       <c r="H15" t="n">
         <v>107.898099562911</v>
       </c>
       <c r="I15" t="n">
-        <v>73.93425515493651</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.27434132826724</v>
+        <v>72.27434132826689</v>
       </c>
       <c r="S15" t="n">
-        <v>163.3413660663109</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.35454715303</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>135.7938015441877</v>
       </c>
     </row>
     <row r="16">
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,13 +23670,13 @@
         <v>167.6144703808229</v>
       </c>
       <c r="H16" t="n">
-        <v>55.02716434111515</v>
+        <v>158.8796654153678</v>
       </c>
       <c r="I16" t="n">
-        <v>144.1278231270811</v>
+        <v>144.127823127081</v>
       </c>
       <c r="J16" t="n">
-        <v>66.73999539781622</v>
+        <v>66.73999539781587</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.63455058802101</v>
+        <v>54.6345505880206</v>
       </c>
       <c r="R16" t="n">
-        <v>160.3641786191054</v>
+        <v>160.3641786191052</v>
       </c>
       <c r="S16" t="n">
-        <v>217.4550733994452</v>
+        <v>217.4550733994451</v>
       </c>
       <c r="T16" t="n">
         <v>226.33686925111</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2984925031653</v>
+        <v>155.2882060203026</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>37.8728240846234</v>
       </c>
       <c r="I17" t="n">
-        <v>12.3636867564588</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>76.39977311163915</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>89.80115265030469</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>323.8796165089773</v>
+        <v>76.04605164210295</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,25 +24132,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>87.00133556471252</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,22 +24171,22 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168096</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24226,7 +24226,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>291.5750132227404</v>
+        <v>58.71232838651957</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>101.7469169782722</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24381,13 +24381,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>52.02592219651748</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24505,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>289.103769358346</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>289.1037693583457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>88.67208961700902</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,16 +24615,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>115.1558072448137</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>169.8618544683336</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>16.39642322652793</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>78.00254480831933</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24861,7 +24861,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853694</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491423</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>353.5047261489953</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>256.5563811570022</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>175.2781376168686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,16 +25119,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>62.69861478456104</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>152.5339184271064</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
@@ -25210,19 +25210,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>177.1438475350533</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>50.78177823929092</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25332,10 +25332,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,31 +25356,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>76.96683368510168</v>
       </c>
     </row>
     <row r="38">
@@ -25393,19 +25393,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>182.5948585597083</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>156.3043432331573</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25563,16 +25563,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>141.3427691173178</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,13 +25593,13 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>152.4816825345735</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
@@ -25630,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25684,19 +25684,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>44.19086363404728</v>
       </c>
       <c r="Y41" t="n">
-        <v>330.5072278249885</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25797,19 +25797,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>82.46735232787628</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,25 +25830,25 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25870,22 +25870,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>51.35492129815395</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>87.46678801747828</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>125.2864931117875</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>78.24366890293322</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26073,7 +26073,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
@@ -26082,10 +26082,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>473796.0964945849</v>
+        <v>473796.0964945848</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>473796.0964945847</v>
+        <v>473796.0964945849</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654497.5688193179</v>
+        <v>654497.5688193201</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>801686.0546829649</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>801686.0546829648</v>
+        <v>801686.054682965</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>801686.054682965</v>
+        <v>801686.0546829649</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>801686.054682965</v>
+        <v>801686.0546829648</v>
       </c>
     </row>
     <row r="16">
@@ -26319,28 +26319,28 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516326</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>150604.5581398032</v>
       </c>
       <c r="F2" t="n">
-        <v>198862.5864584591</v>
+        <v>198862.5864584599</v>
       </c>
       <c r="G2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="I2" t="n">
         <v>245779.7185133938</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.718513394</v>
       </c>
       <c r="L2" t="n">
         <v>245779.7185133939</v>
@@ -26349,7 +26349,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="O2" t="n">
         <v>245779.7185133938</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>38628.88112923565</v>
+        <v>38628.88112923563</v>
       </c>
       <c r="F3" t="n">
-        <v>195194.8921689322</v>
+        <v>195194.8921689352</v>
       </c>
       <c r="G3" t="n">
-        <v>185152.0893328031</v>
+        <v>185152.0893328</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8757.582995213648</v>
+        <v>8757.582995213634</v>
       </c>
       <c r="N3" t="n">
-        <v>49441.87186138653</v>
+        <v>49441.87186138726</v>
       </c>
       <c r="O3" t="n">
-        <v>47231.86264112659</v>
+        <v>47231.86264112582</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>33777.16046143055</v>
       </c>
       <c r="F4" t="n">
-        <v>34875.92377764283</v>
+        <v>34875.92377764285</v>
       </c>
       <c r="G4" t="n">
         <v>35944.74664026682</v>
@@ -26444,7 +26444,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="K4" t="n">
-        <v>35944.74664026682</v>
+        <v>35944.7466402668</v>
       </c>
       <c r="L4" t="n">
         <v>35944.74664026682</v>
@@ -26475,13 +26475,13 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376168</v>
       </c>
       <c r="E5" t="n">
         <v>17553.77951678015</v>
       </c>
       <c r="F5" t="n">
-        <v>33615.28060221572</v>
+        <v>33615.28060221597</v>
       </c>
       <c r="G5" t="n">
         <v>49231.47806340946</v>
@@ -26496,7 +26496,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33681.98604797502</v>
+        <v>-22685.77648993861</v>
       </c>
       <c r="C6" t="n">
-        <v>47087.44548357265</v>
+        <v>58083.65504160907</v>
       </c>
       <c r="D6" t="n">
-        <v>47087.44548357274</v>
+        <v>58083.65504160912</v>
       </c>
       <c r="E6" t="n">
-        <v>48977.78444103233</v>
+        <v>59478.04177322448</v>
       </c>
       <c r="F6" t="n">
-        <v>-73651.75513349996</v>
+        <v>-65706.33459465092</v>
       </c>
       <c r="G6" t="n">
-        <v>-30617.00926890472</v>
+        <v>-25155.43689766443</v>
       </c>
       <c r="H6" t="n">
-        <v>154535.0800638984</v>
+        <v>159996.6524351356</v>
       </c>
       <c r="I6" t="n">
-        <v>154535.0800638983</v>
+        <v>159996.6524351356</v>
       </c>
       <c r="J6" t="n">
-        <v>91475.13746479212</v>
+        <v>96936.70983602939</v>
       </c>
       <c r="K6" t="n">
-        <v>154535.0800638984</v>
+        <v>159996.6524351358</v>
       </c>
       <c r="L6" t="n">
-        <v>154535.0800638984</v>
+        <v>159996.6524351361</v>
       </c>
       <c r="M6" t="n">
-        <v>145777.4970686847</v>
+        <v>151239.0694399221</v>
       </c>
       <c r="N6" t="n">
-        <v>105093.2082025119</v>
+        <v>110554.7805737484</v>
       </c>
       <c r="O6" t="n">
-        <v>107303.2174227718</v>
+        <v>112764.7897940098</v>
       </c>
       <c r="P6" t="n">
-        <v>154535.0800638984</v>
+        <v>159996.6524351357</v>
       </c>
     </row>
   </sheetData>
@@ -26749,10 +26749,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>208.7913421435323</v>
+        <v>208.791342143535</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26764,7 +26764,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170871</v>
       </c>
       <c r="L3" t="n">
         <v>377.7436642170866</v>
@@ -26795,40 +26795,40 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="E4" t="n">
         <v>276.1565137023555</v>
       </c>
       <c r="F4" t="n">
-        <v>478.0202194652421</v>
+        <v>478.0202194652452</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="L4" t="n">
         <v>674.2872727545555</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>674.2872727545555</v>
       </c>
-      <c r="N4" t="n">
-        <v>674.2872727545556</v>
-      </c>
       <c r="O4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545555</v>
@@ -26971,10 +26971,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="F3" t="n">
-        <v>173.770081424407</v>
+        <v>173.7700814244097</v>
       </c>
       <c r="G3" t="n">
-        <v>168.9523220735544</v>
+        <v>168.9523220735516</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469631</v>
       </c>
       <c r="F4" t="n">
-        <v>201.8637057628865</v>
+        <v>201.8637057628897</v>
       </c>
       <c r="G4" t="n">
-        <v>196.2670532893135</v>
+        <v>196.2670532893103</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469637</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628866</v>
+        <v>201.8637057628896</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893135</v>
+        <v>196.2670532893103</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>35.14222482469643</v>
+        <v>35.14222482469631</v>
       </c>
       <c r="N4" t="n">
-        <v>201.8637057628865</v>
+        <v>201.8637057628897</v>
       </c>
       <c r="O4" t="n">
-        <v>196.2670532893135</v>
+        <v>196.2670532893103</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8393621794714859</v>
+        <v>0.8393621794714968</v>
       </c>
       <c r="H14" t="n">
-        <v>8.596117920512357</v>
+        <v>8.596117920512469</v>
       </c>
       <c r="I14" t="n">
-        <v>32.35951042407449</v>
+        <v>32.35951042407491</v>
       </c>
       <c r="J14" t="n">
-        <v>71.23981577991809</v>
+        <v>71.23981577991901</v>
       </c>
       <c r="K14" t="n">
-        <v>106.7700168369461</v>
+        <v>106.7700168369475</v>
       </c>
       <c r="L14" t="n">
-        <v>132.4576471369466</v>
+        <v>132.4576471369483</v>
       </c>
       <c r="M14" t="n">
-        <v>147.3846542961227</v>
+        <v>147.3846542961246</v>
       </c>
       <c r="N14" t="n">
-        <v>149.769492088546</v>
+        <v>149.769492088548</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4230844164264</v>
+        <v>141.4230844164283</v>
       </c>
       <c r="P14" t="n">
-        <v>120.7013306107241</v>
+        <v>120.7013306107257</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.6416725584015</v>
+        <v>90.64167255840266</v>
       </c>
       <c r="R14" t="n">
-        <v>52.72558450622578</v>
+        <v>52.72558450622646</v>
       </c>
       <c r="S14" t="n">
-        <v>19.12696566470651</v>
+        <v>19.12696566470675</v>
       </c>
       <c r="T14" t="n">
-        <v>3.674307940636432</v>
+        <v>3.674307940636479</v>
       </c>
       <c r="U14" t="n">
-        <v>0.06714897435771887</v>
+        <v>0.06714897435771973</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4490983585728808</v>
+        <v>0.4490983585728866</v>
       </c>
       <c r="H15" t="n">
-        <v>4.337344673585455</v>
+        <v>4.337344673585511</v>
       </c>
       <c r="I15" t="n">
-        <v>15.46237769647857</v>
+        <v>15.46237769647877</v>
       </c>
       <c r="J15" t="n">
-        <v>42.42994623692292</v>
+        <v>42.42994623692347</v>
       </c>
       <c r="K15" t="n">
-        <v>72.51953626130593</v>
+        <v>72.51953626130687</v>
       </c>
       <c r="L15" t="n">
-        <v>97.51146596995818</v>
+        <v>97.51146596995945</v>
       </c>
       <c r="M15" t="n">
-        <v>113.7912814682251</v>
+        <v>113.7912814682266</v>
       </c>
       <c r="N15" t="n">
-        <v>116.8029980921634</v>
+        <v>116.8029980921649</v>
       </c>
       <c r="O15" t="n">
-        <v>106.8519239364169</v>
+        <v>106.8519239364183</v>
       </c>
       <c r="P15" t="n">
-        <v>85.7580891909916</v>
+        <v>85.75808919099271</v>
       </c>
       <c r="Q15" t="n">
-        <v>57.32701152589966</v>
+        <v>57.3270115259004</v>
       </c>
       <c r="R15" t="n">
-        <v>27.88349282437589</v>
+        <v>27.88349282437625</v>
       </c>
       <c r="S15" t="n">
-        <v>8.341805037526969</v>
+        <v>8.341805037527077</v>
       </c>
       <c r="T15" t="n">
-        <v>1.810181541791567</v>
+        <v>1.810181541791591</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0295459446429527</v>
+        <v>0.02954594464295308</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3765089776358779</v>
+        <v>0.3765089776358827</v>
       </c>
       <c r="H16" t="n">
-        <v>3.347507092071717</v>
+        <v>3.34750709207176</v>
       </c>
       <c r="I16" t="n">
-        <v>11.32265180017713</v>
+        <v>11.32265180017728</v>
       </c>
       <c r="J16" t="n">
-        <v>26.61918471885656</v>
+        <v>26.61918471885691</v>
       </c>
       <c r="K16" t="n">
-        <v>43.7434975835138</v>
+        <v>43.74349758351437</v>
       </c>
       <c r="L16" t="n">
-        <v>55.97661654779225</v>
+        <v>55.97661654779297</v>
       </c>
       <c r="M16" t="n">
-        <v>59.01949364886764</v>
+        <v>59.01949364886841</v>
       </c>
       <c r="N16" t="n">
-        <v>57.61614200495215</v>
+        <v>57.61614200495289</v>
       </c>
       <c r="O16" t="n">
-        <v>53.21783258438756</v>
+        <v>53.21783258438825</v>
       </c>
       <c r="P16" t="n">
-        <v>45.53704944061561</v>
+        <v>45.5370494406162</v>
       </c>
       <c r="Q16" t="n">
-        <v>31.52749266367337</v>
+        <v>31.52749266367378</v>
       </c>
       <c r="R16" t="n">
-        <v>16.9292127580641</v>
+        <v>16.92921275806432</v>
       </c>
       <c r="S16" t="n">
-        <v>6.561524637527069</v>
+        <v>6.561524637527154</v>
       </c>
       <c r="T16" t="n">
-        <v>1.608720177171478</v>
+        <v>1.608720177171499</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02053685332559336</v>
+        <v>0.02053685332559363</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32332,22 +32332,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,22 +32408,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32487,22 +32487,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32575,16 +32575,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,13 +32645,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32660,7 +32660,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J29" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.167479908158</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405371</v>
       </c>
       <c r="N29" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119869</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q29" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633809</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473561</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472038</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141118</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188924</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396486</v>
       </c>
       <c r="K30" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L30" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M30" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N30" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736703</v>
       </c>
       <c r="O30" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034988</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619159</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078619</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813583</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302248</v>
       </c>
       <c r="L31" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M31" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N31" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175855</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383811</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678015</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S31" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315615</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34786,19 +34786,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>113.3808631277494</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141197</v>
       </c>
       <c r="O9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M12" t="n">
-        <v>160.6933770016709</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N12" t="n">
         <v>276.1565137023555</v>
@@ -35506,7 +35506,7 @@
         <v>269.1887005891756</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>23.3246024308939</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>59.29052642530557</v>
+        <v>59.2905264253065</v>
       </c>
       <c r="K14" t="n">
-        <v>210.8255783631303</v>
+        <v>210.8255783631317</v>
       </c>
       <c r="L14" t="n">
-        <v>314.3524467174099</v>
+        <v>314.3524467174116</v>
       </c>
       <c r="M14" t="n">
-        <v>366.5519545616825</v>
+        <v>366.5519545616843</v>
       </c>
       <c r="N14" t="n">
-        <v>357.7033529039393</v>
+        <v>357.7033529039412</v>
       </c>
       <c r="O14" t="n">
-        <v>292.1250542574851</v>
+        <v>292.1250542574869</v>
       </c>
       <c r="P14" t="n">
-        <v>211.2670430269372</v>
+        <v>211.2670430269388</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.65097334385669</v>
+        <v>80.65097334385786</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.68335491066507</v>
+        <v>41.68335491066561</v>
       </c>
       <c r="K15" t="n">
-        <v>199.1433342995255</v>
+        <v>199.1433342995265</v>
       </c>
       <c r="L15" t="n">
-        <v>329.7974314935432</v>
+        <v>329.7974314935444</v>
       </c>
       <c r="M15" t="n">
-        <v>437.3623112962067</v>
+        <v>437.3623112962081</v>
       </c>
       <c r="N15" t="n">
-        <v>464.8036603523836</v>
+        <v>464.8036603523851</v>
       </c>
       <c r="O15" t="n">
-        <v>358.117998768702</v>
+        <v>22.30786165510156</v>
       </c>
       <c r="P15" t="n">
-        <v>61.85883847872033</v>
+        <v>270.2464504165996</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>127.422525175728</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>21.47400575763095</v>
+        <v>21.47400575763152</v>
       </c>
       <c r="L16" t="n">
-        <v>83.56664180810839</v>
+        <v>83.56664180810911</v>
       </c>
       <c r="M16" t="n">
-        <v>98.60337061070823</v>
+        <v>98.60337061070899</v>
       </c>
       <c r="N16" t="n">
-        <v>101.7483143841807</v>
+        <v>101.7483143841815</v>
       </c>
       <c r="O16" t="n">
-        <v>77.80296049842724</v>
+        <v>77.80296049842792</v>
       </c>
       <c r="P16" t="n">
-        <v>42.8156087055091</v>
+        <v>42.81560870550969</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K17" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35974,13 +35974,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
         <v>130.3926104730626</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36135,10 +36135,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L21" t="n">
         <v>408.7029475713857</v>
@@ -36214,13 +36214,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36296,7 +36296,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K24" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730077</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36451,7 +36451,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,10 +36609,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
         <v>153.9975062898689</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36688,13 +36688,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181295</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.895655249224</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530455</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.017335757707</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047505</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355119</v>
+        <v>559.3197334338905</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713963</v>
       </c>
       <c r="L31" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850087</v>
       </c>
       <c r="M31" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N31" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O31" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873159</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,10 +37159,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L36" t="n">
-        <v>365.2844632307146</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
         <v>529.4413268262938</v>
@@ -37399,7 +37399,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181308</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
         <v>297.2230414343419</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,10 +37633,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355123</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37870,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
